--- a/doc/ToneTable.xlsx
+++ b/doc/ToneTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Private\src\MiniVario\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\MiniVario\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA515685-ABBE-4810-82AA-844FCB624B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9087B7EA-07E5-4ACF-8D7D-C8038CB25939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17670" yWindow="375" windowWidth="33045" windowHeight="15240" xr2:uid="{D1D946DC-CB56-47EB-A823-9206B29D762E}"/>
+    <workbookView xWindow="67530" yWindow="690" windowWidth="27435" windowHeight="15120" xr2:uid="{D1D946DC-CB56-47EB-A823-9206B29D762E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -241,25 +241,25 @@
                   <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>523</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>633</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>698</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>784</c:v>
+                  <c:v>790</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>880</c:v>
+                  <c:v>940</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>988</c:v>
+                  <c:v>1080</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1047</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -599,25 +599,25 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>600</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>275</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>250</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>225</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>200</c:v>
@@ -6120,12 +6120,16 @@
   <dimension ref="B5:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.25" customWidth="1"/>
+    <col min="6" max="6" width="2.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>-10</v>
       </c>
@@ -6139,7 +6143,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>-3</v>
       </c>
@@ -6153,7 +6157,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>-2</v>
       </c>
@@ -6167,7 +6171,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>-1</v>
       </c>
@@ -6181,7 +6185,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>-0.5</v>
       </c>
@@ -6189,18 +6193,18 @@
         <v>470</v>
       </c>
       <c r="D9">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D10">
         <v>800</v>
@@ -6209,82 +6213,82 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>633</v>
+        <v>590</v>
       </c>
       <c r="D11">
-        <v>500</v>
+        <v>720</v>
       </c>
       <c r="E11">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>698</v>
+        <v>650</v>
       </c>
       <c r="D12">
-        <v>400</v>
+        <v>640</v>
       </c>
       <c r="E12">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="D13">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="E13">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>6</v>
       </c>
       <c r="C14">
-        <v>880</v>
+        <v>940</v>
       </c>
       <c r="D14">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="E14">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>8</v>
       </c>
       <c r="C15">
-        <v>988</v>
+        <v>1080</v>
       </c>
       <c r="D15">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="E15">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>10</v>
       </c>
       <c r="C16">
-        <v>1047</v>
+        <v>1200</v>
       </c>
       <c r="D16">
         <v>200</v>
@@ -6293,7 +6297,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>-10</v>
       </c>
@@ -6307,7 +6311,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>-3</v>
       </c>
@@ -6321,7 +6325,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>-2</v>
       </c>
@@ -6335,7 +6339,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>-1</v>
       </c>
@@ -6349,7 +6353,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>-0.5</v>
       </c>
@@ -6363,7 +6367,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>0</v>
       </c>
@@ -6377,7 +6381,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>1</v>
       </c>
@@ -6391,7 +6395,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26">
         <v>2</v>
       </c>
@@ -6405,7 +6409,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B27">
         <v>4</v>
       </c>
@@ -6419,7 +6423,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B28">
         <v>6</v>
       </c>
@@ -6433,7 +6437,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>8</v>
       </c>
@@ -6447,7 +6451,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>10</v>
       </c>
